--- a/excel/motor.xlsx
+++ b/excel/motor.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonfa\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonfa\Documents\GitHub\Murakumo\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B78697D-EE1F-4D3D-B7F7-FC65A1C83D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27079D66-0C8D-4431-87C6-C3E94FDA4CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{7BAAFA3A-D6EC-4EE9-8AF9-0265726F084B}"/>
   </bookViews>
@@ -318,22 +318,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -645,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F886CA5F-E276-45C9-9172-0233F394B97F}">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -783,17 +768,11 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="2"/>
-      <c r="H3" s="1">
-        <f>25500/PI()</f>
-        <v>8116.9020976866623</v>
-      </c>
-      <c r="I3" s="1">
-        <f xml:space="preserve"> POWER(10, -3)*1732*9.80665/2</f>
-        <v>8.4925588999999988</v>
-      </c>
-      <c r="J3" s="1">
-        <f t="shared" ref="J3:J14" si="0">H3*I3*1000*PI()/30</f>
-        <v>7218675.0649999995</v>
+      <c r="E3" s="1">
+        <v>7379.0020000000004</v>
+      </c>
+      <c r="G3" s="1">
+        <v>9.35</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
@@ -816,7 +795,7 @@
         <v>34.1</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G14" si="1">F4*L4</f>
+        <f t="shared" ref="G4:G14" si="0">F4*L4</f>
         <v>26.5639</v>
       </c>
       <c r="H4" s="1">
@@ -826,7 +805,7 @@
         <v>0.309</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J3:J14" si="1">H4*I4*1000*PI()/30</f>
         <v>160174.10144327561</v>
       </c>
       <c r="K4" s="1">
@@ -843,23 +822,23 @@
       </c>
       <c r="Q4" s="1">
         <f t="shared" ref="Q4:Q14" si="2">$H$3/H4</f>
-        <v>1.639778201552861</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" ref="R4:R14" si="3">$I$3/I4</f>
-        <v>27.484009385113264</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" ref="T4:T14" si="4">Q4</f>
-        <v>1.639778201552861</v>
-      </c>
-      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1" t="e">
         <f t="shared" ref="U4:U14" si="5">1/R4</f>
-        <v>3.6384793280621233E-2</v>
-      </c>
-      <c r="V4" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V4" s="1" t="e">
         <f t="shared" ref="V4:V14" si="6">T4-U4</f>
-        <v>1.6033934082722399</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
@@ -878,7 +857,7 @@
         <v>72.099999999999994</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>87.240999999999985</v>
       </c>
       <c r="H5" s="1">
@@ -888,7 +867,7 @@
         <v>1.04</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1005225.873344638</v>
       </c>
       <c r="K5" s="1">
@@ -908,23 +887,23 @@
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="2"/>
-        <v>0.87940434427807823</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="3"/>
-        <v>8.1659220192307682</v>
+        <v>0</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="4"/>
-        <v>0.87940434427807823</v>
-      </c>
-      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1" t="e">
         <f t="shared" si="5"/>
-        <v>0.12246014566940479</v>
-      </c>
-      <c r="V5" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V5" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0.75694419860867346</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
@@ -945,7 +924,7 @@
         <v>46.5</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>56.265000000000001</v>
       </c>
       <c r="H6" s="1">
@@ -955,7 +934,7 @@
         <v>0.33400000000000002</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>891898.15435414226</v>
       </c>
       <c r="K6" s="1">
@@ -975,23 +954,23 @@
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="2"/>
-        <v>0.31830988618379069</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="3"/>
-        <v>25.42682305389221</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="4"/>
-        <v>0.31830988618379069</v>
-      </c>
-      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1" t="e">
         <f t="shared" si="5"/>
-        <v>3.9328546782289621E-2</v>
-      </c>
-      <c r="V6" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V6" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0.27898133940150105</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
@@ -1008,7 +987,7 @@
         <v>16.2</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50.868000000000002</v>
       </c>
       <c r="H7" s="1">
@@ -1018,7 +997,7 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>468704.67996457318</v>
       </c>
       <c r="K7" s="1">
@@ -1038,23 +1017,23 @@
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="2"/>
-        <v>0.5839497912004793</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="3"/>
-        <v>26.374406521739125</v>
+        <v>0</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" si="4"/>
-        <v>0.5839497912004793</v>
-      </c>
-      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1" t="e">
         <f t="shared" si="5"/>
-        <v>3.7915545101488791E-2</v>
-      </c>
-      <c r="V7" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V7" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0.54603424609899054</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.4">
@@ -1073,7 +1052,7 @@
         <v>149</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>55.13</v>
       </c>
       <c r="H8" s="1">
@@ -1083,7 +1062,7 @@
         <v>0.41299999999999998</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2261936.2386091384</v>
       </c>
       <c r="K8" s="1">
@@ -1103,23 +1082,23 @@
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="2"/>
-        <v>0.15519889288119812</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="3"/>
-        <v>20.563096610169488</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" si="4"/>
-        <v>0.15519889288119812</v>
-      </c>
-      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1" t="e">
         <f t="shared" si="5"/>
-        <v>4.8630807847561713E-2</v>
-      </c>
-      <c r="V8" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V8" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0.10656808503363641</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
@@ -1136,7 +1115,7 @@
         <v>58.8</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>51.861599999999996</v>
       </c>
       <c r="H9" s="1">
@@ -1146,7 +1125,7 @@
         <v>0.41199999999999998</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1937189.806007562</v>
       </c>
       <c r="K9" s="1">
@@ -1166,23 +1145,23 @@
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="2"/>
-        <v>0.18077732956985884</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="3"/>
-        <v>20.613007038834951</v>
+        <v>0</v>
       </c>
       <c r="T9" s="1">
         <f t="shared" si="4"/>
-        <v>0.18077732956985884</v>
-      </c>
-      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1" t="e">
         <f t="shared" si="5"/>
-        <v>4.8513057707494971E-2</v>
-      </c>
-      <c r="V9" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V9" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0.13226427186236386</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.4">
@@ -1199,7 +1178,7 @@
         <v>29.8</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>52.15</v>
       </c>
       <c r="H10" s="1">
@@ -1209,7 +1188,7 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2082875.9293300328</v>
       </c>
       <c r="K10" s="1">
@@ -1229,23 +1208,23 @@
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="2"/>
-        <v>0.17343807901039876</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" si="3"/>
-        <v>19.982491529411764</v>
+        <v>0</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" si="4"/>
-        <v>0.17343807901039876</v>
-      </c>
-      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1" t="e">
         <f t="shared" si="5"/>
-        <v>5.0043809528362529E-2</v>
-      </c>
-      <c r="V10" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V10" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0.12339426948203623</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.4">
@@ -1266,7 +1245,7 @@
         <v>28.8</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21.974399999999999</v>
       </c>
       <c r="H11" s="1">
@@ -1276,7 +1255,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>275674.75535250432</v>
       </c>
       <c r="K11" s="1">
@@ -1296,23 +1275,23 @@
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="2"/>
-        <v>0.69375231604159504</v>
+        <v>0</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="3"/>
-        <v>37.744706222222213</v>
+        <v>0</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" si="4"/>
-        <v>0.69375231604159504</v>
-      </c>
-      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1" t="e">
         <f t="shared" si="5"/>
-        <v>2.6493781515015462E-2</v>
-      </c>
-      <c r="V11" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V11" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0.66725853452657957</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.4">
@@ -1329,7 +1308,7 @@
         <v>14.4</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22.032</v>
       </c>
       <c r="H12" s="1">
@@ -1339,7 +1318,7 @@
         <v>0.23899999999999999</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>335375.48774622235</v>
       </c>
       <c r="K12" s="1">
@@ -1359,23 +1338,23 @@
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="2"/>
-        <v>0.60573896251393</v>
+        <v>0</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" si="3"/>
-        <v>35.533719246861921</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
         <f t="shared" si="4"/>
-        <v>0.60573896251393</v>
-      </c>
-      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1" t="e">
         <f t="shared" si="5"/>
-        <v>2.8142283475949756E-2</v>
-      </c>
-      <c r="V12" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0.57759667903798029</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.4">
@@ -1394,7 +1373,7 @@
         <v>55.6</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37.252000000000002</v>
       </c>
       <c r="H13" s="1">
@@ -1404,7 +1383,7 @@
         <v>0.33800000000000002</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>814091.37630023505</v>
       </c>
       <c r="K13" s="1">
@@ -1424,23 +1403,23 @@
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="2"/>
-        <v>0.35290878685594185</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" si="3"/>
-        <v>25.12591390532544</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
         <f t="shared" si="4"/>
-        <v>0.35290878685594185</v>
-      </c>
-      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1" t="e">
         <f t="shared" si="5"/>
-        <v>3.9799547342556557E-2</v>
-      </c>
-      <c r="V13" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0.31310923951338532</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.4">
@@ -1457,7 +1436,7 @@
         <v>18.899999999999999</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33.641999999999996</v>
       </c>
       <c r="H14" s="1">
@@ -1467,7 +1446,7 @@
         <v>0.34100000000000003</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>478506.44904377341</v>
       </c>
       <c r="K14" s="1">
@@ -1487,23 +1466,23 @@
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="2"/>
-        <v>0.60573896251393</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" si="3"/>
-        <v>24.904864809384158</v>
+        <v>0</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" si="4"/>
-        <v>0.60573896251393</v>
-      </c>
-      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1" t="e">
         <f t="shared" si="5"/>
-        <v>4.0152797762756771E-2</v>
-      </c>
-      <c r="V14" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0.56558616475117318</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -1525,16 +1504,6 @@
     <mergeCell ref="B6:B10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H4:H14">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>$H$3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I14">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>$I$3</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
